--- a/SUMMARY SHEETS/EAS_Genus_2PSummary.xlsx
+++ b/SUMMARY SHEETS/EAS_Genus_2PSummary.xlsx
@@ -1353,37 +1353,37 @@
         <v>0.0000076</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.87047003946896</v>
+        <v>-9.68783638320775</v>
       </c>
       <c r="G2" t="n">
         <v>0.0000818083961248655</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000348826227089301</v>
+        <v>0.0000504239340633952</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.000100129523384084</v>
+        <v>-0.000488498823003829</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.000801036187072668</v>
+        <v>-0.00390799058403063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M2" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P2" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q2" t="n">
         <v>0.12998573491073</v>
@@ -1400,43 +1400,43 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6347326874776</v>
+        <v>20.4520990312164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0000621652454178603</v>
+        <v>0.0000932478681267904</v>
       </c>
       <c r="F3" t="n">
-        <v>10.0466451381414</v>
+        <v>15.0699677072121</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000847606503723965</v>
+        <v>0.00190711463337892</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000554380435575069</v>
+        <v>0.0000831570653362603</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000556966350775096</v>
+        <v>0.00125317428924397</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00445573080620077</v>
+        <v>0.0100253943139517</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M3" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P3" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q3" t="n">
         <v>0.12998573491073</v>
@@ -1453,43 +1453,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5880875493362</v>
+        <v>5.38213132400431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000487108416971535</v>
+        <v>0.0000730662625457302</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.94689630426982</v>
+        <v>-2.15285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000174778764611243</v>
+        <v>0.000393252220375297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00013527930620238</v>
+        <v>0.000147457016626669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.000533933393694361</v>
+        <v>-0.000317453211252247</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.00427146714955489</v>
+        <v>-0.00253962569001797</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M4" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P4" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q4" t="n">
         <v>0.12998573491073</v>
@@ -1527,22 +1527,22 @@
         <v>0.00726368743804683</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M5" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P5" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q5" t="n">
         <v>0.12998573491073</v>
@@ -1580,22 +1580,22 @@
         <v>-0.00171647149987978</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M6" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P6" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q6" t="n">
         <v>0.12998573491073</v>
@@ -1633,22 +1633,22 @@
         <v>0.00244934612497751</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M7" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P7" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q7" t="n">
         <v>0.12998573491073</v>
@@ -1686,22 +1686,22 @@
         <v>-0.00951037832608169</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M8" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P8" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q8" t="n">
         <v>0.12998573491073</v>
@@ -1739,22 +1739,22 @@
         <v>0.01409915247617</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00807877369592674</v>
+        <v>0.00935675528134575</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0282679168453951</v>
+        <v>0.0338375803531461</v>
       </c>
       <c r="M9" t="n">
-        <v>3.49903560977919</v>
+        <v>3.61637975299054</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0188452778969301</v>
+        <v>0.0225583869020974</v>
       </c>
       <c r="P9" t="n">
-        <v>2.33269040651946</v>
+        <v>2.41091983532703</v>
       </c>
       <c r="Q9" t="n">
         <v>0.12998573491073</v>
@@ -9863,22 +9863,22 @@
         <v>-0.00297477926575711</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L2" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N2" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O2" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P2" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q2" t="n">
         <v>0.054772570529106</v>
@@ -9901,37 +9901,37 @@
         <v>0.0000260339070285693</v>
       </c>
       <c r="F3" t="n">
-        <v>6.03994737471595</v>
+        <v>4.57481162540366</v>
       </c>
       <c r="G3" t="n">
         <v>0.00046238909146544</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000451326265438544</v>
+        <v>0.0000491470856725507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000272598689207589</v>
+        <v>0.000224838658889494</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00463417771652901</v>
+        <v>0.00382225720112141</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L3" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M3" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N3" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O3" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P3" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q3" t="n">
         <v>0.054772570529106</v>
@@ -9948,43 +9948,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7210859944983</v>
+        <v>13.1862217438105</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000642313460591395</v>
+        <v>0.000072260264316532</v>
       </c>
       <c r="F4" t="n">
-        <v>4.54491089582586</v>
+        <v>6.01004664513814</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000752861130701552</v>
+        <v>0.000952839868544152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000833665943916775</v>
+        <v>0.0000873810535203737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00037889374319863</v>
+        <v>0.000525164207558758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0064411936343767</v>
+        <v>0.00892779152849889</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L4" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N4" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O4" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P4" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q4" t="n">
         <v>0.054772570529106</v>
@@ -10022,22 +10022,22 @@
         <v>0.00586804644463051</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N5" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O5" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P5" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q5" t="n">
         <v>0.054772570529106</v>
@@ -10075,22 +10075,22 @@
         <v>0.00370680024519373</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N6" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O6" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P6" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q6" t="n">
         <v>0.054772570529106</v>
@@ -10128,22 +10128,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L7" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N7" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O7" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P7" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q7" t="n">
         <v>0.054772570529106</v>
@@ -10181,22 +10181,22 @@
         <v>0.00358748249318448</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L8" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N8" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O8" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P8" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q8" t="n">
         <v>0.054772570529106</v>
@@ -10234,22 +10234,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L9" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N9" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O9" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P9" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q9" t="n">
         <v>0.054772570529106</v>
@@ -10287,22 +10287,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L10" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M10" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N10" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O10" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P10" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q10" t="n">
         <v>0.054772570529106</v>
@@ -10340,22 +10340,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L11" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N11" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O11" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P11" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q11" t="n">
         <v>0.054772570529106</v>
@@ -10393,22 +10393,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L12" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N12" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O12" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P12" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q12" t="n">
         <v>0.054772570529106</v>
@@ -10446,22 +10446,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L13" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N13" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O13" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P13" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q13" t="n">
         <v>0.054772570529106</v>
@@ -10499,22 +10499,22 @@
         <v>-0.167039947590037</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L14" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N14" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O14" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P14" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q14" t="n">
         <v>0.054772570529106</v>
@@ -10552,22 +10552,22 @@
         <v>0.211140336403968</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L15" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M15" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N15" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O15" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P15" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q15" t="n">
         <v>0.054772570529106</v>
@@ -10605,22 +10605,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L16" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N16" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O16" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P16" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q16" t="n">
         <v>0.054772570529106</v>
@@ -10658,22 +10658,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L17" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M17" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N17" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O17" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P17" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q17" t="n">
         <v>0.054772570529106</v>
@@ -10711,22 +10711,22 @@
         <v>0.15167950699955</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0847377884078127</v>
+        <v>0.0849377671456553</v>
       </c>
       <c r="L18" t="n">
-        <v>0.387057543937433</v>
+        <v>0.388732221316147</v>
       </c>
       <c r="M18" t="n">
-        <v>4.5677088251898</v>
+        <v>4.57667106611751</v>
       </c>
       <c r="N18" t="n">
         <v>0.705882352941177</v>
       </c>
       <c r="O18" t="n">
-        <v>0.548331520578029</v>
+        <v>0.550703980197875</v>
       </c>
       <c r="P18" t="n">
-        <v>6.47092083568556</v>
+        <v>6.48361734366647</v>
       </c>
       <c r="Q18" t="n">
         <v>0.054772570529106</v>
@@ -13551,22 +13551,22 @@
         <v>-0.00485853379654944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L2" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M2" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N2" t="n">
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P2" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q2" t="n">
         <v>0.111532616189861</v>
@@ -13589,37 +13589,37 @@
         <v>0.0000471493426023351</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.5250568113862</v>
+        <v>-13.78695458351</v>
       </c>
       <c r="G3" t="n">
         <v>0.00119551018199917</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000110485725694548</v>
+        <v>0.000118386730639401</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00116286853978235</v>
+        <v>-0.00163219247861565</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0116286853978235</v>
+        <v>-0.0163219247861565</v>
       </c>
       <c r="K3" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L3" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M3" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N3" t="n">
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P3" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q3" t="n">
         <v>0.111532616189861</v>
@@ -13636,43 +13636,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>35.880875493362</v>
+        <v>39.1427732654859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000173822108786761</v>
+        <v>0.000189624118676466</v>
       </c>
       <c r="F4" t="n">
-        <v>23.1594741820791</v>
+        <v>25.1492318230747</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0062368894433714</v>
+        <v>0.00742241388302051</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000151823657813563</v>
+        <v>0.000166215923100434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00351615608336203</v>
+        <v>0.00418020278273917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0351615608336203</v>
+        <v>0.0418020278273917</v>
       </c>
       <c r="K4" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L4" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M4" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N4" t="n">
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q4" t="n">
         <v>0.111532616189861</v>
@@ -13689,43 +13689,43 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>12.7214013112829</v>
+        <v>13.9935414424112</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000129825206840365</v>
+        <v>0.000142807727524402</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.841569625207944</v>
+        <v>-1.07642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0016515585565366</v>
+        <v>0.00199838585340929</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00021647409608973</v>
+        <v>0.00023980552228392</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.000182178023913462</v>
+        <v>-0.000258132962630698</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00182178023913462</v>
+        <v>-0.00258132962630698</v>
       </c>
       <c r="K5" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L5" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M5" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N5" t="n">
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P5" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q5" t="n">
         <v>0.111532616189861</v>
@@ -13742,43 +13742,43 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5629709364908</v>
+        <v>15.0699677072121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000303122985339094</v>
+        <v>0.000336803317043437</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0717617509867257</v>
+        <v>-1.29171151776103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00411124824033647</v>
+        <v>0.0050756151115265</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000419003241358237</v>
+        <v>0.000489331756948147</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0000300684062689807</v>
+        <v>-0.000632075466456164</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.000300684062689807</v>
+        <v>-0.00632075466456164</v>
       </c>
       <c r="K6" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L6" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M6" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q6" t="n">
         <v>0.111532616189861</v>
@@ -13795,43 +13795,43 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>13.6347326874776</v>
+        <v>16.3616792249731</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00053488349737738</v>
+        <v>0.000641860196852856</v>
       </c>
       <c r="F7" t="n">
-        <v>3.94689630426982</v>
+        <v>6.67384284176534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00729299350568369</v>
+        <v>0.0105019106481845</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000558278615256545</v>
+        <v>0.000611766964994283</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00220346780330893</v>
+        <v>0.0040828365801556</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0220346780330893</v>
+        <v>0.040828365801556</v>
       </c>
       <c r="K7" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L7" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M7" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N7" t="n">
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q7" t="n">
         <v>0.111532616189861</v>
@@ -13869,22 +13869,22 @@
         <v>0.0274921067597577</v>
       </c>
       <c r="K8" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L8" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M8" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N8" t="n">
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q8" t="n">
         <v>0.111532616189861</v>
@@ -13922,22 +13922,22 @@
         <v>0.000739599697749404</v>
       </c>
       <c r="K9" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L9" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M9" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N9" t="n">
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q9" t="n">
         <v>0.111532616189861</v>
@@ -13975,22 +13975,22 @@
         <v>-0.00581370392046281</v>
       </c>
       <c r="K10" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L10" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M10" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N10" t="n">
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q10" t="n">
         <v>0.111532616189861</v>
@@ -14028,22 +14028,22 @@
         <v>0.0149003176764414</v>
       </c>
       <c r="K11" t="n">
-        <v>0.031394670667974</v>
+        <v>0.0371003064181867</v>
       </c>
       <c r="L11" t="n">
-        <v>0.100328263000658</v>
+        <v>0.125762417762896</v>
       </c>
       <c r="M11" t="n">
-        <v>3.19571000000978</v>
+        <v>3.38979458404816</v>
       </c>
       <c r="N11" t="n">
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0836068858338818</v>
+        <v>0.104802014802414</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66309166667481</v>
+        <v>2.82482882004013</v>
       </c>
       <c r="Q11" t="n">
         <v>0.111532616189861</v>
@@ -14787,22 +14787,22 @@
         <v>0.0000673306494946885</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M2" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N2" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P2" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q2" t="n">
         <v>0.164554002338097</v>
@@ -14825,37 +14825,37 @@
         <v>0.0000109236085815498</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.43523501973448</v>
+        <v>-2.51166128453534</v>
       </c>
       <c r="G3" t="n">
         <v>0.0000313558911562247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000301847367847037</v>
+        <v>0.0000363654699081859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0000433221912948743</v>
+        <v>-0.0000913377428623256</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00030325533906412</v>
+        <v>-0.000639364200036279</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M3" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N3" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P3" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q3" t="n">
         <v>0.164554002338097</v>
@@ -14872,43 +14872,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>4.30570505920345</v>
+        <v>5.38213132400431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000494458649878576</v>
+        <v>0.000061807331234822</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.07642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000212899311034909</v>
+        <v>0.000332655173492045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000788523185819416</v>
+        <v>0.0000850330517054238</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0000915318102318879</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.000640722671623215</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M4" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N4" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P4" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q4" t="n">
         <v>0.164554002338097</v>
@@ -14946,22 +14946,22 @@
         <v>0.0013140102299646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M5" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N5" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P5" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q5" t="n">
         <v>0.164554002338097</v>
@@ -14999,22 +14999,22 @@
         <v>0.000541771760160694</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M6" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N6" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P6" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q6" t="n">
         <v>0.164554002338097</v>
@@ -15052,22 +15052,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M7" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N7" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P7" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q7" t="n">
         <v>0.164554002338097</v>
@@ -15105,22 +15105,22 @@
         <v>0.00187305733794617</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00194226819765307</v>
+        <v>0.00206202406011021</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00379616997756615</v>
+        <v>0.00443689264918937</v>
       </c>
       <c r="M8" t="n">
-        <v>1.95450349346874</v>
+        <v>2.15171720593417</v>
       </c>
       <c r="N8" t="n">
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00221443248691359</v>
+        <v>0.0025881873786938</v>
       </c>
       <c r="P8" t="n">
-        <v>1.14012703785676</v>
+        <v>1.25516837012827</v>
       </c>
       <c r="Q8" t="n">
         <v>0.164554002338097</v>
@@ -17164,22 +17164,22 @@
         <v>-0.00901207425779743</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L2" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M2" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N2" t="n">
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0459798821508022</v>
@@ -17202,37 +17202,37 @@
         <v>0.0000537226945715537</v>
       </c>
       <c r="F3" t="n">
-        <v>10.0328448014132</v>
+        <v>5.74094007893793</v>
       </c>
       <c r="G3" t="n">
         <v>0.00330586369537907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000772665500917258</v>
+        <v>0.0000814669836588882</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007752033054109</v>
+        <v>0.000467697071597493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007752033054109</v>
+        <v>0.00467697071597493</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M3" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N3" t="n">
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0459798821508022</v>
@@ -17249,43 +17249,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>51.5028566697027</v>
+        <v>55.794761392178</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000100810405611898</v>
+        <v>0.000109211272746223</v>
       </c>
       <c r="F4" t="n">
-        <v>27.2832657116834</v>
+        <v>31.5751704341586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00519202387104417</v>
+        <v>0.00609341690421156</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000892048920045244</v>
+        <v>0.0000934053255716868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00243380077134146</v>
+        <v>0.00294928907438408</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0243380077134146</v>
+        <v>0.0294928907438408</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M4" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N4" t="n">
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0459798821508022</v>
@@ -17323,22 +17323,22 @@
         <v>0.0095293203519032</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L5" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M5" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N5" t="n">
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0459798821508022</v>
@@ -17376,22 +17376,22 @@
         <v>-0.00724231119727758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L6" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M6" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0459798821508022</v>
@@ -17429,22 +17429,22 @@
         <v>0.0154492403654202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L7" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M7" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N7" t="n">
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0459798821508022</v>
@@ -17482,22 +17482,22 @@
         <v>0.000927058767765125</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L8" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M8" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N8" t="n">
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0459798821508022</v>
@@ -17535,22 +17535,22 @@
         <v>0.000655188872748295</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L9" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M9" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N9" t="n">
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0459798821508022</v>
@@ -17588,22 +17588,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L10" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M10" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N10" t="n">
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0459798821508022</v>
@@ -17641,22 +17641,22 @@
         <v>0.000772759365697536</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0151952188573488</v>
+        <v>0.0160966118905162</v>
       </c>
       <c r="L11" t="n">
-        <v>0.059423608491058</v>
+        <v>0.0615034291833501</v>
       </c>
       <c r="M11" t="n">
-        <v>3.91067802635296</v>
+        <v>3.82089284389014</v>
       </c>
       <c r="N11" t="n">
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0495196737425483</v>
+        <v>0.0512528576527918</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25889835529413</v>
+        <v>3.18407736990845</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0459798821508022</v>
@@ -17746,37 +17746,37 @@
         <v>0.00000828</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.7610333692142</v>
+        <v>-19.9628143653978</v>
       </c>
       <c r="G2" t="n">
         <v>0.0000534768568353068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000907678026458058</v>
+        <v>0.0000986430574317881</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00161212997164241</v>
+        <v>-0.00196919304394606</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00644851988656962</v>
+        <v>-0.00787677217578424</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0147578566361506</v>
+        <v>0.016333360221841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0253596246166404</v>
+        <v>0.029262480651301</v>
       </c>
       <c r="M2" t="n">
-        <v>1.71838128272095</v>
+        <v>1.79157749868096</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00845320820554679</v>
+        <v>0.00975416021710034</v>
       </c>
       <c r="P2" t="n">
-        <v>0.572793760906984</v>
+        <v>0.597192499560321</v>
       </c>
       <c r="Q2" t="n">
         <v>0.414065232882875</v>
@@ -17793,43 +17793,43 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2195909580194</v>
+        <v>26.421371954203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000173255605291612</v>
+        <v>0.000189006114863576</v>
       </c>
       <c r="F3" t="n">
-        <v>8.97021887334051</v>
+        <v>9.78569331637146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00419617989134689</v>
+        <v>0.00499380086242936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000220808375779509</v>
+        <v>0.000240881864486738</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00198069945980902</v>
+        <v>0.00235719605134297</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00792279783923608</v>
+        <v>0.00942878420537186</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0147578566361506</v>
+        <v>0.016333360221841</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0253596246166404</v>
+        <v>0.029262480651301</v>
       </c>
       <c r="M3" t="n">
-        <v>1.71838128272095</v>
+        <v>1.79157749868096</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00845320820554679</v>
+        <v>0.00975416021710034</v>
       </c>
       <c r="P3" t="n">
-        <v>0.572793760906984</v>
+        <v>0.597192499560321</v>
       </c>
       <c r="Q3" t="n">
         <v>0.414065232882875</v>
@@ -17846,43 +17846,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2493720846789</v>
+        <v>16.6356786378315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000268361146267407</v>
+        <v>0.000292757614109899</v>
       </c>
       <c r="F4" t="n">
-        <v>2.91939850605082</v>
+        <v>4.30570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00409233897250262</v>
+        <v>0.00487022158711056</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000394353917162055</v>
+        <v>0.000406552151083301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00115127623661819</v>
+        <v>0.00175049365374941</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00460510494647277</v>
+        <v>0.00700197461499765</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0147578566361506</v>
+        <v>0.016333360221841</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0253596246166404</v>
+        <v>0.029262480651301</v>
       </c>
       <c r="M4" t="n">
-        <v>1.71838128272095</v>
+        <v>1.79157749868096</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00845320820554679</v>
+        <v>0.00975416021710034</v>
       </c>
       <c r="P4" t="n">
-        <v>0.572793760906984</v>
+        <v>0.597192499560321</v>
       </c>
       <c r="Q4" t="n">
         <v>0.414065232882875</v>
@@ -17920,22 +17920,22 @@
         <v>0.0128317218309315</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0147578566361506</v>
+        <v>0.016333360221841</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0253596246166404</v>
+        <v>0.029262480651301</v>
       </c>
       <c r="M5" t="n">
-        <v>1.71838128272095</v>
+        <v>1.79157749868096</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00845320820554679</v>
+        <v>0.00975416021710034</v>
       </c>
       <c r="P5" t="n">
-        <v>0.572793760906984</v>
+        <v>0.597192499560321</v>
       </c>
       <c r="Q5" t="n">
         <v>0.414065232882875</v>
@@ -18531,22 +18531,22 @@
         <v>-0.00370103848012284</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M2" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N2" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P2" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0803845817477966</v>
@@ -18569,37 +18569,37 @@
         <v>0.0000569602076336736</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.14417337237574</v>
+        <v>-3.13142186123887</v>
       </c>
       <c r="G3" t="n">
         <v>0.00129315668568473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000122070052525451</v>
+        <v>0.000129869214917835</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.000139669303664129</v>
+        <v>-0.000406675298695638</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00153636234030542</v>
+        <v>-0.00447342828565202</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M3" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N3" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P3" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0803845817477966</v>
@@ -18616,43 +18616,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8469818663575</v>
+        <v>25.8342303552207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000187179897417227</v>
+        <v>0.000202778222201996</v>
       </c>
       <c r="F4" t="n">
-        <v>17.5841381438798</v>
+        <v>18.9451022604952</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00446367561945529</v>
+        <v>0.0052386193033885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000150159034823013</v>
+        <v>0.000163615105826837</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00264041721187951</v>
+        <v>0.00309970491125116</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0290445893306746</v>
+        <v>0.0340967540237628</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M4" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N4" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P4" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0803845817477966</v>
@@ -18669,43 +18669,43 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>6.26284372247774</v>
+        <v>6.88912809472551</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000113138172228798</v>
+        <v>0.000124451989451677</v>
       </c>
       <c r="F5" t="n">
-        <v>1.03448757915927</v>
+        <v>1.66077195140704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00070856669171573</v>
+        <v>0.000857365696976034</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000141805904416953</v>
+        <v>0.000147462813028393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000146696446770784</v>
+        <v>0.000244902103753136</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00161366091447863</v>
+        <v>0.00269392314128449</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M5" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N5" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P5" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0803845817477966</v>
@@ -18743,22 +18743,22 @@
         <v>-0.0106093640146283</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M6" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N6" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P6" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0803845817477966</v>
@@ -18796,22 +18796,22 @@
         <v>0.0145691059860789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M7" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N7" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P7" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0803845817477966</v>
@@ -18849,22 +18849,22 @@
         <v>0.00545412383095584</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M8" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N8" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0803845817477966</v>
@@ -18902,22 +18902,22 @@
         <v>-0.0056095234587707</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M9" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N9" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0803845817477966</v>
@@ -18955,22 +18955,22 @@
         <v>0.014298847918167</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M10" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N10" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P10" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0803845817477966</v>
@@ -19008,22 +19008,22 @@
         <v>0.0247407079717192</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M11" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N11" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0803845817477966</v>
@@ -19061,22 +19061,22 @@
         <v>0.00983953146227869</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0318579808067513</v>
+        <v>0.0327817234959448</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0995605674143529</v>
+        <v>0.105692994334247</v>
       </c>
       <c r="M12" t="n">
-        <v>3.125137403349</v>
+        <v>3.22414391504832</v>
       </c>
       <c r="N12" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0912638534631568</v>
+        <v>0.096885244806393</v>
       </c>
       <c r="P12" t="n">
-        <v>2.86470928640325</v>
+        <v>2.95546525546096</v>
       </c>
       <c r="Q12" t="n">
         <v>0.0803845817477966</v>
@@ -23776,22 +23776,22 @@
         <v>-0.0132428455806418</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M2" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N2" t="n">
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P2" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0973135279776031</v>
@@ -23814,37 +23814,37 @@
         <v>0.000157035399248868</v>
       </c>
       <c r="F3" t="n">
-        <v>7.89379260853965</v>
+        <v>6.45855758880517</v>
       </c>
       <c r="G3" t="n">
         <v>0.00371881462160936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000212072872244221</v>
+        <v>0.000224214251573293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00167405927139321</v>
+        <v>0.00144810065601696</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0167405927139321</v>
+        <v>0.0144810065601696</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L3" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M3" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N3" t="n">
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P3" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0973135279776031</v>
@@ -23861,43 +23861,43 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7875852170793</v>
+        <v>17.2228202368138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000267110345239574</v>
+        <v>0.000291393103897717</v>
       </c>
       <c r="F4" t="n">
-        <v>9.91616922725642</v>
+        <v>11.3514042469909</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00421702733783325</v>
+        <v>0.00501861104667758</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000245073539864627</v>
+        <v>0.000257214919193698</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00243019069442041</v>
+        <v>0.00291975052612477</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0243019069442041</v>
+        <v>0.0291975052612477</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L4" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M4" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N4" t="n">
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P4" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0973135279776031</v>
@@ -23935,22 +23935,22 @@
         <v>-0.0090175970649963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M5" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N5" t="n">
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P5" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0973135279776031</v>
@@ -23988,22 +23988,22 @@
         <v>-0.00244486144531582</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M6" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P6" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0973135279776031</v>
@@ -24041,22 +24041,22 @@
         <v>0.0318371959205052</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M7" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N7" t="n">
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P7" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0973135279776031</v>
@@ -24094,22 +24094,22 @@
         <v>0.0156396978143704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M8" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N8" t="n">
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0973135279776031</v>
@@ -24147,22 +24147,22 @@
         <v>0.014642581363071</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M9" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N9" t="n">
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0973135279776031</v>
@@ -24200,22 +24200,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L10" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M10" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N10" t="n">
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P10" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0973135279776031</v>
@@ -24253,22 +24253,22 @@
         <v>0.0456119489568995</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0432753003635966</v>
+        <v>0.044076884072441</v>
       </c>
       <c r="L11" t="n">
-        <v>0.148773923712982</v>
+        <v>0.151409935876263</v>
       </c>
       <c r="M11" t="n">
-        <v>3.43784843693729</v>
+        <v>3.43513247505017</v>
       </c>
       <c r="N11" t="n">
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0.123978269760819</v>
+        <v>0.126174946563553</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86487369744774</v>
+        <v>2.86261039587514</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0973135279776031</v>
